--- a/data/Inga_2018-11-09_WM_20181109-114911/PrBlank.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/PrBlank.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+  <si>
+    <t>Lab. #</t>
+  </si>
   <si>
     <t>U-233</t>
   </si>
@@ -53,12 +56,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E4BC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -73,8 +82,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,23 +379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,394 +421,442 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1">
+      <c r="A2" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B2" s="1">
         <v>1.254643982958177E-08</v>
       </c>
-      <c r="B2">
+      <c r="C2" s="1">
         <v>4.741568312039834</v>
       </c>
-      <c r="C2">
+      <c r="D2" s="1">
         <v>1.514364855100184E-05</v>
       </c>
-      <c r="D2">
+      <c r="E2" s="1">
         <v>5.963980915986237E-06</v>
       </c>
-      <c r="E2">
+      <c r="F2" s="1">
         <v>0.001044361267876802</v>
       </c>
-      <c r="F2">
+      <c r="G2" s="1">
         <v>0.1638076600593969</v>
       </c>
-      <c r="G2">
+      <c r="H2" s="1">
         <v>5.277316506113012E-06</v>
       </c>
-      <c r="H2">
+      <c r="I2" s="1">
         <v>0.504704692585569</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
+        <v>9715</v>
+      </c>
+      <c r="B3">
         <v>1.42563497604749E-05</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>5.804104871100899</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5.377287957819583E-06</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1.405106256421104E-05</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.0008355855081592769</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5.272836412551587</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2.453531343790517E-07</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>3.147763671888888</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+    <row r="4" spans="1:9" s="1" customFormat="1">
+      <c r="A4" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.93685312331611E-06</v>
       </c>
-      <c r="B4">
+      <c r="C4" s="1">
         <v>1.686776277261614</v>
       </c>
-      <c r="C4">
+      <c r="D4" s="1">
         <v>9.327079645537851E-07</v>
       </c>
-      <c r="D4">
+      <c r="E4" s="1">
         <v>3.647689893814534E-07</v>
       </c>
-      <c r="E4">
+      <c r="F4" s="1">
         <v>0.0006142394774409377</v>
       </c>
-      <c r="F4">
+      <c r="G4" s="1">
         <v>3.590487144855012</v>
       </c>
-      <c r="G4">
+      <c r="H4" s="1">
         <v>4.80884499007257E-06</v>
       </c>
-      <c r="H4">
+      <c r="I4" s="1">
         <v>3.014946654360799</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>0</v>
+        <v>9716</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>3.413397782943589</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>2.245621367675224E-05</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>2.223873939199602E-06</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.0008965760472629928</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>5.184291703096427</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1.061362327898213E-06</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>4.564478813753269</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+    <row r="6" spans="1:9" s="1" customFormat="1">
+      <c r="A6" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B6" s="1">
         <v>3.486513120539871E-06</v>
       </c>
-      <c r="B6">
+      <c r="C6" s="1">
         <v>2.085227366156286</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>4.44379583048064E-07</v>
       </c>
-      <c r="E6">
+      <c r="F6" s="1">
         <v>0.0005265754833236196</v>
       </c>
-      <c r="F6">
+      <c r="G6" s="1">
         <v>2.61649554921089</v>
       </c>
-      <c r="G6">
+      <c r="H6" s="1">
         <v>8.396221379805344E-06</v>
       </c>
-      <c r="H6">
+      <c r="I6" s="1">
         <v>2.218044417461495</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7">
-        <v>0</v>
+        <v>9717</v>
       </c>
       <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>6.876603360455205</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>3.207071945252578E-05</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>6.673967389936054E-06</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.002356856883909826</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.830112920163617</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>5.040875408019647E-07</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>3.679031849243603</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:9" s="1" customFormat="1">
+      <c r="A8" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
         <v>2.616495525778011</v>
       </c>
-      <c r="C8">
+      <c r="D8" s="1">
         <v>5.07786078293983E-07</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
         <v>0.0007911079751024836</v>
       </c>
-      <c r="F8">
+      <c r="G8" s="1">
         <v>4.033210634709698</v>
       </c>
-      <c r="G8">
+      <c r="H8" s="1">
         <v>2.220130064964439E-05</v>
       </c>
-      <c r="H8">
+      <c r="I8" s="1">
         <v>1.563920522083931</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="A9">
-        <v>0</v>
+        <v>9718</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
         <v>7.22082047824527</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8.543596060893197E-06</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1.608111328866949E-05</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.003233161835752773</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.71555992182812</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1.075732052180135E-05</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>6.158283591546007</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>0</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:9" s="1" customFormat="1">
+      <c r="A10" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
         <v>5.0957470426181</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="1">
         <v>6.657819811489268E-07</v>
       </c>
-      <c r="D10">
+      <c r="E10" s="1">
         <v>8.911212698039538E-06</v>
       </c>
-      <c r="E10">
+      <c r="F10" s="1">
         <v>0.001060706262073677</v>
       </c>
-      <c r="F10">
+      <c r="G10" s="1">
         <v>8.261220257654051</v>
       </c>
-      <c r="G10">
+      <c r="H10" s="1">
         <v>3.574826186822795E-05</v>
       </c>
-      <c r="H10">
+      <c r="I10" s="1">
         <v>2.483678491361362</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11">
+        <v>9719</v>
+      </c>
+      <c r="B11">
         <v>1.723362206020738E-06</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3.014946654360799</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>2.717925650953688E-07</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6.886017417298842E-06</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.0008439159832446044</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4.121755319676442</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.696934597366665E-05</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>5.272836404951733</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+    <row r="12" spans="1:9" s="1" customFormat="1">
+      <c r="A12" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B12" s="1">
         <v>1.009042894753559E-06</v>
       </c>
-      <c r="B12">
+      <c r="C12" s="1">
         <v>4.608751188958231</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="1">
         <v>8.449427197426747E-06</v>
       </c>
-      <c r="D12">
+      <c r="E12" s="1">
         <v>1.990185847222248E-06</v>
       </c>
-      <c r="E12">
+      <c r="F12" s="1">
         <v>0.001208832614220676</v>
       </c>
-      <c r="F12">
+      <c r="G12" s="1">
         <v>4.210300085708282</v>
       </c>
-      <c r="G12">
+      <c r="H12" s="1">
         <v>1.079205427170565E-05</v>
       </c>
-      <c r="H12">
+      <c r="I12" s="1">
         <v>0.1638076600593969</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13">
+        <v>9720</v>
+      </c>
+      <c r="B13">
         <v>1.810087422660345E-05</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>1.731048621222736</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>8.219708586916585E-06</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0.0007261017628754707</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>2.970674281689125</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>1.686480211001402E-05</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>3.014946634094526</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+    <row r="14" spans="1:9" s="1" customFormat="1">
+      <c r="A14" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B14" s="1">
         <v>8.420091191029445E-06</v>
       </c>
-      <c r="B14">
+      <c r="C14" s="1">
         <v>4.343117310121273</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="1">
         <v>1.312294468304851E-05</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.001040577600408274</v>
       </c>
-      <c r="F14">
+      <c r="G14" s="1">
         <v>2.417269970036451</v>
       </c>
-      <c r="G14">
+      <c r="H14" s="1">
         <v>1.296077270405954E-06</v>
       </c>
-      <c r="H14">
+      <c r="I14" s="1">
         <v>2.08522738557813</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15">
+        <v>9721</v>
+      </c>
+      <c r="B15">
         <v>6.589868218715588E-06</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>2.350861439211724</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>1.413727279795753E-05</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>0.0007770763333348358</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3.413397755077463</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4.274040548767069E-06</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>2.483678481228226</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:9" s="1" customFormat="1">
+      <c r="A16" s="1">
+        <v>9186</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
         <v>3.280580738393803</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="1">
         <v>2.092294689862833E-06</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
         <v>0.0007955701116301913</v>
       </c>
-      <c r="F16">
+      <c r="G16" s="1">
         <v>2.173772072233731</v>
       </c>
-      <c r="G16">
+      <c r="H16" s="1">
         <v>1.360323578168999E-05</v>
       </c>
-      <c r="H16">
+      <c r="I16" s="1">
         <v>0.6685123526449659</v>
       </c>
     </row>

--- a/data/Inga_2018-11-09_WM_20181109-114911/PrBlank.xlsx
+++ b/data/Inga_2018-11-09_WM_20181109-114911/PrBlank.xlsx
@@ -47,13 +47,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -82,9 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,32 +465,32 @@
         <v>0.504704692585569</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3">
+    <row r="3" spans="1:9" s="2" customFormat="1">
+      <c r="A3" s="2">
         <v>9715</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1.42563497604749E-05</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5.804104871100899</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5.377287957819583E-06</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>1.405106256421104E-05</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>0.0008355855081592769</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="2">
         <v>5.272836412551587</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>2.453531343790517E-07</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>3.147763671888888</v>
       </c>
     </row>
@@ -512,32 +523,32 @@
         <v>3.014946654360799</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5">
+    <row r="5" spans="1:9" s="2" customFormat="1">
+      <c r="A5" s="2">
         <v>9716</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.413397782943589</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>2.245621367675224E-05</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>2.223873939199602E-06</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>0.0008965760472629928</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="2">
         <v>5.184291703096427</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>1.061362327898213E-06</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>4.564478813753269</v>
       </c>
     </row>
@@ -570,32 +581,32 @@
         <v>2.218044417461495</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7">
+    <row r="7" spans="1:9" s="2" customFormat="1">
+      <c r="A7" s="2">
         <v>9717</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
         <v>6.876603360455205</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>3.207071945252578E-05</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>6.673967389936054E-06</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>0.002356856883909826</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>4.830112920163617</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>5.040875408019647E-07</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>3.679031849243603</v>
       </c>
     </row>
@@ -628,32 +639,32 @@
         <v>1.563920522083931</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9">
+    <row r="9" spans="1:9" s="2" customFormat="1">
+      <c r="A9" s="2">
         <v>9718</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
         <v>7.22082047824527</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8.543596060893197E-06</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>1.608111328866949E-05</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>0.003233161835752773</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>5.71555992182812</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>1.075732052180135E-05</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>6.158283591546007</v>
       </c>
     </row>
@@ -686,32 +697,32 @@
         <v>2.483678491361362</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11">
+    <row r="11" spans="1:9" s="2" customFormat="1">
+      <c r="A11" s="2">
         <v>9719</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>1.723362206020738E-06</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>3.014946654360799</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>2.717925650953688E-07</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>6.886017417298842E-06</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>0.0008439159832446044</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="2">
         <v>4.121755319676442</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>1.696934597366665E-05</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>5.272836404951733</v>
       </c>
     </row>
@@ -744,32 +755,32 @@
         <v>0.1638076600593969</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
+    <row r="13" spans="1:9" s="2" customFormat="1">
+      <c r="A13" s="2">
         <v>9720</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>1.810087422660345E-05</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>1.731048621222736</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>8.219708586916585E-06</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.0007261017628754707</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>2.970674281689125</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>1.686480211001402E-05</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>3.014946634094526</v>
       </c>
     </row>
@@ -802,32 +813,32 @@
         <v>2.08522738557813</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="A15">
+    <row r="15" spans="1:9" s="2" customFormat="1">
+      <c r="A15" s="2">
         <v>9721</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>6.589868218715588E-06</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2.350861439211724</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>1.413727279795753E-05</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.0007770763333348358</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>3.413397755077463</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>4.274040548767069E-06</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>2.483678481228226</v>
       </c>
     </row>
